--- a/biology/Médecine/Achille_Dron/Achille_Dron.xlsx
+++ b/biology/Médecine/Achille_Dron/Achille_Dron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guillaume-Achille Dron, né le 1er juin 1830 à Lyon et mort dans cette même commune le 25 décembre 1906 (à 76 ans), est un médecin français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'abord prosecteur, de 1854 à 1857 à l'école de médecine de Lyon, il devient Docteur en médecine en 1856. Achille Dron participe à la guerre de 1870 en tant que chirurgien en chef et est chirurgien en chef de l'hôpital de l'Antiquaille de Lyon en 1883. Il est aussi professeur agrégé à la faculté de médecine de Lyon de 1877 à 1882.
 Administrateur des hospices civils de Lyon depuis 1890, il est aussi vice-président de la société de médecine de Lyon.
@@ -543,9 +557,11 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Achille Dron est fait chevalier de la Légion d'honneur le 28 juin 1894[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Achille Dron est fait chevalier de la Légion d'honneur le 28 juin 1894.
 </t>
         </is>
       </c>
